--- a/public/test cases.xlsx
+++ b/public/test cases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\phed\Documents\rajneer2.0\water-bill-engine\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F086CBC-4F96-455D-8028-9B49BC25A548}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31214641-F399-430F-867B-9344C32F9CB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3452" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3704" uniqueCount="29">
   <si>
     <t>Category</t>
   </si>
@@ -517,8 +517,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P177"/>
   <sheetViews>
-    <sheetView topLeftCell="A111" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G96" sqref="G96"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R35" sqref="R35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -528,8 +528,10 @@
     <col min="4" max="10" width="8.7109375" customWidth="1"/>
     <col min="11" max="11" width="19.42578125" customWidth="1"/>
     <col min="12" max="12" width="22.7109375" customWidth="1"/>
-    <col min="13" max="14" width="8.7109375" customWidth="1"/>
-    <col min="15" max="16" width="12.42578125" customWidth="1"/>
+    <col min="13" max="13" width="8.7109375" customWidth="1"/>
+    <col min="14" max="14" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -9238,10 +9240,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D0FD373-6714-458D-8EEC-EC2CE4ED0BE4}">
-  <dimension ref="A1:Q208"/>
+  <dimension ref="A1:Q242"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
-      <selection activeCell="S147" sqref="S147"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16345,6 +16347,9 @@
       <c r="Q138" s="10"/>
     </row>
     <row r="139" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>1</v>
+      </c>
       <c r="B139" s="2" t="s">
         <v>10</v>
       </c>
@@ -16395,6 +16400,9 @@
       </c>
     </row>
     <row r="140" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>2</v>
+      </c>
       <c r="B140" s="2" t="s">
         <v>10</v>
       </c>
@@ -16445,6 +16453,9 @@
       </c>
     </row>
     <row r="141" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>3</v>
+      </c>
       <c r="B141" s="2" t="s">
         <v>10</v>
       </c>
@@ -16493,6 +16504,9 @@
       </c>
     </row>
     <row r="142" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>4</v>
+      </c>
       <c r="B142" s="2" t="s">
         <v>10</v>
       </c>
@@ -16541,6 +16555,9 @@
       </c>
     </row>
     <row r="143" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>5</v>
+      </c>
       <c r="B143" s="2" t="s">
         <v>10</v>
       </c>
@@ -16589,6 +16606,9 @@
       </c>
     </row>
     <row r="144" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>6</v>
+      </c>
       <c r="B144" s="2" t="s">
         <v>10</v>
       </c>
@@ -16636,7 +16656,10 @@
         <v>21</v>
       </c>
     </row>
-    <row r="145" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>7</v>
+      </c>
       <c r="B145" s="2" t="s">
         <v>10</v>
       </c>
@@ -16684,7 +16707,10 @@
         <v>22</v>
       </c>
     </row>
-    <row r="146" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>8</v>
+      </c>
       <c r="B146" s="2" t="s">
         <v>10</v>
       </c>
@@ -16732,7 +16758,10 @@
         <v>23</v>
       </c>
     </row>
-    <row r="147" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>9</v>
+      </c>
       <c r="B147" s="2" t="s">
         <v>10</v>
       </c>
@@ -16780,7 +16809,10 @@
         <v>24</v>
       </c>
     </row>
-    <row r="148" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>10</v>
+      </c>
       <c r="B148" s="2" t="s">
         <v>10</v>
       </c>
@@ -16828,7 +16860,10 @@
         <v>25</v>
       </c>
     </row>
-    <row r="149" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>11</v>
+      </c>
       <c r="B149" s="2" t="s">
         <v>10</v>
       </c>
@@ -16876,7 +16911,10 @@
         <v>26</v>
       </c>
     </row>
-    <row r="150" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>12</v>
+      </c>
       <c r="B150" s="2" t="s">
         <v>10</v>
       </c>
@@ -16924,7 +16962,10 @@
         <v>18</v>
       </c>
     </row>
-    <row r="151" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>13</v>
+      </c>
       <c r="B151" s="2" t="s">
         <v>10</v>
       </c>
@@ -16972,7 +17013,10 @@
         <v>19</v>
       </c>
     </row>
-    <row r="152" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>14</v>
+      </c>
       <c r="B152" s="2" t="s">
         <v>10</v>
       </c>
@@ -17020,7 +17064,10 @@
         <v>20</v>
       </c>
     </row>
-    <row r="153" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>15</v>
+      </c>
       <c r="B153" s="2" t="s">
         <v>10</v>
       </c>
@@ -17068,7 +17115,10 @@
         <v>21</v>
       </c>
     </row>
-    <row r="154" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>16</v>
+      </c>
       <c r="B154" s="2" t="s">
         <v>10</v>
       </c>
@@ -17116,7 +17166,10 @@
         <v>22</v>
       </c>
     </row>
-    <row r="155" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>17</v>
+      </c>
       <c r="B155" s="2" t="s">
         <v>10</v>
       </c>
@@ -17164,7 +17217,10 @@
         <v>23</v>
       </c>
     </row>
-    <row r="156" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>18</v>
+      </c>
       <c r="B156" s="2" t="s">
         <v>10</v>
       </c>
@@ -17212,7 +17268,10 @@
         <v>24</v>
       </c>
     </row>
-    <row r="157" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>19</v>
+      </c>
       <c r="B157" s="2" t="s">
         <v>10</v>
       </c>
@@ -17260,7 +17319,10 @@
         <v>25</v>
       </c>
     </row>
-    <row r="158" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>20</v>
+      </c>
       <c r="B158" s="2" t="s">
         <v>10</v>
       </c>
@@ -17308,7 +17370,116 @@
         <v>26</v>
       </c>
     </row>
-    <row r="162" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>1</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C160" s="2">
+        <v>50</v>
+      </c>
+      <c r="D160" s="2">
+        <v>1</v>
+      </c>
+      <c r="E160" s="2">
+        <v>7000</v>
+      </c>
+      <c r="F160" s="2">
+        <v>14000</v>
+      </c>
+      <c r="G160" s="2">
+        <v>21000</v>
+      </c>
+      <c r="H160" s="2">
+        <v>28000</v>
+      </c>
+      <c r="I160" s="2">
+        <v>35000</v>
+      </c>
+      <c r="J160" s="1">
+        <v>35000</v>
+      </c>
+      <c r="K160" s="1">
+        <v>10000</v>
+      </c>
+      <c r="L160" s="2">
+        <v>15000</v>
+      </c>
+      <c r="M160" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N160" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="O160" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="P160" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q160" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="161" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>2</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C161" s="2">
+        <v>50</v>
+      </c>
+      <c r="D161" s="2">
+        <v>1</v>
+      </c>
+      <c r="E161" s="2">
+        <v>7000</v>
+      </c>
+      <c r="F161" s="2">
+        <v>14000</v>
+      </c>
+      <c r="G161" s="2">
+        <v>21000</v>
+      </c>
+      <c r="H161" s="2">
+        <v>28000</v>
+      </c>
+      <c r="I161" s="2">
+        <v>35000</v>
+      </c>
+      <c r="J161" s="1">
+        <v>35000</v>
+      </c>
+      <c r="K161" s="1">
+        <v>10000</v>
+      </c>
+      <c r="L161" s="2">
+        <v>15000</v>
+      </c>
+      <c r="M161" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N161" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="O161" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="P161" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q161" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="162" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>3</v>
+      </c>
       <c r="B162" s="2" t="s">
         <v>10</v>
       </c>
@@ -17336,12 +17507,10 @@
       <c r="J162" s="1">
         <v>35000</v>
       </c>
-      <c r="K162" s="1">
-        <v>10000</v>
-      </c>
-      <c r="L162" s="2">
-        <v>15000</v>
-      </c>
+      <c r="K162" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L162" s="2"/>
       <c r="M162" s="2" t="s">
         <v>11</v>
       </c>
@@ -17355,10 +17524,13 @@
         <v>12</v>
       </c>
       <c r="Q162" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="163" spans="2:17" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="163" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>4</v>
+      </c>
       <c r="B163" s="2" t="s">
         <v>10</v>
       </c>
@@ -17386,14 +17558,12 @@
       <c r="J163" s="1">
         <v>35000</v>
       </c>
-      <c r="K163" s="1">
-        <v>10000</v>
-      </c>
-      <c r="L163" s="2">
-        <v>15000</v>
-      </c>
+      <c r="K163" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L163" s="2"/>
       <c r="M163" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="N163" s="2" t="s">
         <v>12</v>
@@ -17405,10 +17575,13 @@
         <v>12</v>
       </c>
       <c r="Q163" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="164" spans="2:17" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="164" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>5</v>
+      </c>
       <c r="B164" s="2" t="s">
         <v>10</v>
       </c>
@@ -17437,7 +17610,7 @@
         <v>35000</v>
       </c>
       <c r="K164" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="L164" s="2"/>
       <c r="M164" s="2" t="s">
@@ -17453,10 +17626,13 @@
         <v>12</v>
       </c>
       <c r="Q164" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="165" spans="2:17" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="165" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>6</v>
+      </c>
       <c r="B165" s="2" t="s">
         <v>10</v>
       </c>
@@ -17485,7 +17661,7 @@
         <v>35000</v>
       </c>
       <c r="K165" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L165" s="2"/>
       <c r="M165" s="2" t="s">
@@ -17501,10 +17677,13 @@
         <v>12</v>
       </c>
       <c r="Q165" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="166" spans="2:17" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="166" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>7</v>
+      </c>
       <c r="B166" s="2" t="s">
         <v>10</v>
       </c>
@@ -17533,7 +17712,7 @@
         <v>35000</v>
       </c>
       <c r="K166" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L166" s="2"/>
       <c r="M166" s="2" t="s">
@@ -17549,10 +17728,13 @@
         <v>12</v>
       </c>
       <c r="Q166" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="167" spans="2:17" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="167" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>8</v>
+      </c>
       <c r="B167" s="2" t="s">
         <v>10</v>
       </c>
@@ -17581,7 +17763,7 @@
         <v>35000</v>
       </c>
       <c r="K167" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L167" s="2"/>
       <c r="M167" s="2" t="s">
@@ -17597,10 +17779,13 @@
         <v>12</v>
       </c>
       <c r="Q167" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="168" spans="2:17" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="168" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>9</v>
+      </c>
       <c r="B168" s="2" t="s">
         <v>10</v>
       </c>
@@ -17629,11 +17814,11 @@
         <v>35000</v>
       </c>
       <c r="K168" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L168" s="2"/>
       <c r="M168" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="N168" s="2" t="s">
         <v>12</v>
@@ -17645,10 +17830,13 @@
         <v>12</v>
       </c>
       <c r="Q168" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="169" spans="2:17" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="169" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <v>10</v>
+      </c>
       <c r="B169" s="2" t="s">
         <v>10</v>
       </c>
@@ -17677,11 +17865,11 @@
         <v>35000</v>
       </c>
       <c r="K169" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="L169" s="2"/>
       <c r="M169" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="N169" s="2" t="s">
         <v>12</v>
@@ -17693,10 +17881,13 @@
         <v>12</v>
       </c>
       <c r="Q169" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="170" spans="2:17" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="170" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <v>11</v>
+      </c>
       <c r="B170" s="2" t="s">
         <v>10</v>
       </c>
@@ -17725,11 +17916,11 @@
         <v>35000</v>
       </c>
       <c r="K170" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="L170" s="2"/>
       <c r="M170" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="N170" s="2" t="s">
         <v>12</v>
@@ -17741,10 +17932,13 @@
         <v>12</v>
       </c>
       <c r="Q170" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="171" spans="2:17" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="171" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <v>12</v>
+      </c>
       <c r="B171" s="2" t="s">
         <v>10</v>
       </c>
@@ -17773,7 +17967,7 @@
         <v>35000</v>
       </c>
       <c r="K171" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="L171" s="2"/>
       <c r="M171" s="2" t="s">
@@ -17789,10 +17983,13 @@
         <v>12</v>
       </c>
       <c r="Q171" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="172" spans="2:17" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="172" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <v>13</v>
+      </c>
       <c r="B172" s="2" t="s">
         <v>10</v>
       </c>
@@ -17821,7 +18018,7 @@
         <v>35000</v>
       </c>
       <c r="K172" s="1" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="L172" s="2"/>
       <c r="M172" s="2" t="s">
@@ -17837,15 +18034,69 @@
         <v>12</v>
       </c>
       <c r="Q172" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="174" spans="2:17" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="173" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <v>14</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C173" s="2">
+        <v>50</v>
+      </c>
+      <c r="D173" s="2">
+        <v>1</v>
+      </c>
+      <c r="E173" s="2">
+        <v>7000</v>
+      </c>
+      <c r="F173" s="2">
+        <v>14000</v>
+      </c>
+      <c r="G173" s="2">
+        <v>21000</v>
+      </c>
+      <c r="H173" s="2">
+        <v>28000</v>
+      </c>
+      <c r="I173" s="2">
+        <v>35000</v>
+      </c>
+      <c r="J173" s="1">
+        <v>35000</v>
+      </c>
+      <c r="K173" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L173" s="2"/>
+      <c r="M173" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N173" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="O173" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="P173" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q173" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="174" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>15</v>
+      </c>
       <c r="B174" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C174" s="2">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="D174" s="2">
         <v>1</v>
@@ -17868,14 +18119,12 @@
       <c r="J174" s="1">
         <v>35000</v>
       </c>
-      <c r="K174" s="1">
-        <v>10000</v>
-      </c>
-      <c r="L174" s="2">
-        <v>15000</v>
-      </c>
+      <c r="K174" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L174" s="2"/>
       <c r="M174" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="N174" s="2" t="s">
         <v>12</v>
@@ -17887,15 +18136,18 @@
         <v>12</v>
       </c>
       <c r="Q174" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="175" spans="2:17" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="175" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <v>16</v>
+      </c>
       <c r="B175" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C175" s="2">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="D175" s="2">
         <v>1</v>
@@ -17918,12 +18170,10 @@
       <c r="J175" s="1">
         <v>35000</v>
       </c>
-      <c r="K175" s="1">
-        <v>10000</v>
-      </c>
-      <c r="L175" s="2">
-        <v>15000</v>
-      </c>
+      <c r="K175" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L175" s="2"/>
       <c r="M175" s="2" t="s">
         <v>15</v>
       </c>
@@ -17937,15 +18187,18 @@
         <v>12</v>
       </c>
       <c r="Q175" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="176" spans="2:17" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="176" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <v>17</v>
+      </c>
       <c r="B176" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C176" s="2">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="D176" s="2">
         <v>1</v>
@@ -17969,11 +18222,11 @@
         <v>35000</v>
       </c>
       <c r="K176" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="L176" s="2"/>
       <c r="M176" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="N176" s="2" t="s">
         <v>12</v>
@@ -17985,15 +18238,18 @@
         <v>12</v>
       </c>
       <c r="Q176" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="177" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A177">
         <v>18</v>
       </c>
-    </row>
-    <row r="177" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B177" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C177" s="2">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="D177" s="2">
         <v>1</v>
@@ -18017,11 +18273,11 @@
         <v>35000</v>
       </c>
       <c r="K177" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="L177" s="2"/>
       <c r="M177" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="N177" s="2" t="s">
         <v>12</v>
@@ -18033,15 +18289,18 @@
         <v>12</v>
       </c>
       <c r="Q177" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="178" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A178">
         <v>19</v>
       </c>
-    </row>
-    <row r="178" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B178" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C178" s="2">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="D178" s="2">
         <v>1</v>
@@ -18065,11 +18324,11 @@
         <v>35000</v>
       </c>
       <c r="K178" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="L178" s="2"/>
       <c r="M178" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="N178" s="2" t="s">
         <v>12</v>
@@ -18081,15 +18340,18 @@
         <v>12</v>
       </c>
       <c r="Q178" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="179" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A179">
         <v>20</v>
       </c>
-    </row>
-    <row r="179" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B179" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C179" s="2">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="D179" s="2">
         <v>1</v>
@@ -18113,11 +18375,11 @@
         <v>35000</v>
       </c>
       <c r="K179" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="L179" s="2"/>
       <c r="M179" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="N179" s="2" t="s">
         <v>12</v>
@@ -18129,58 +18391,13 @@
         <v>12</v>
       </c>
       <c r="Q179" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="180" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B180" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C180" s="2">
-        <v>80</v>
-      </c>
-      <c r="D180" s="2">
-        <v>1</v>
-      </c>
-      <c r="E180" s="2">
-        <v>7000</v>
-      </c>
-      <c r="F180" s="2">
-        <v>14000</v>
-      </c>
-      <c r="G180" s="2">
-        <v>21000</v>
-      </c>
-      <c r="H180" s="2">
-        <v>28000</v>
-      </c>
-      <c r="I180" s="2">
-        <v>35000</v>
-      </c>
-      <c r="J180" s="1">
-        <v>35000</v>
-      </c>
-      <c r="K180" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L180" s="2"/>
-      <c r="M180" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="N180" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="O180" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="P180" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q180" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="181" spans="2:17" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="181" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A181">
+        <v>1</v>
+      </c>
       <c r="B181" s="2" t="s">
         <v>10</v>
       </c>
@@ -18208,12 +18425,14 @@
       <c r="J181" s="1">
         <v>35000</v>
       </c>
-      <c r="K181" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="L181" s="2"/>
+      <c r="K181" s="1">
+        <v>10000</v>
+      </c>
+      <c r="L181" s="2">
+        <v>15000</v>
+      </c>
       <c r="M181" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="N181" s="2" t="s">
         <v>12</v>
@@ -18225,10 +18444,13 @@
         <v>12</v>
       </c>
       <c r="Q181" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="182" spans="2:17" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="182" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A182">
+        <v>2</v>
+      </c>
       <c r="B182" s="2" t="s">
         <v>10</v>
       </c>
@@ -18256,10 +18478,12 @@
       <c r="J182" s="1">
         <v>35000</v>
       </c>
-      <c r="K182" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="L182" s="2"/>
+      <c r="K182" s="1">
+        <v>10000</v>
+      </c>
+      <c r="L182" s="2">
+        <v>15000</v>
+      </c>
       <c r="M182" s="2" t="s">
         <v>15</v>
       </c>
@@ -18273,10 +18497,13 @@
         <v>12</v>
       </c>
       <c r="Q182" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="183" spans="2:17" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="183" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A183">
+        <v>3</v>
+      </c>
       <c r="B183" s="2" t="s">
         <v>10</v>
       </c>
@@ -18305,11 +18532,11 @@
         <v>35000</v>
       </c>
       <c r="K183" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="L183" s="2"/>
       <c r="M183" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="N183" s="2" t="s">
         <v>12</v>
@@ -18321,10 +18548,13 @@
         <v>12</v>
       </c>
       <c r="Q183" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="184" spans="2:17" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="184" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A184">
+        <v>4</v>
+      </c>
       <c r="B184" s="2" t="s">
         <v>10</v>
       </c>
@@ -18353,11 +18583,11 @@
         <v>35000</v>
       </c>
       <c r="K184" s="1" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="L184" s="2"/>
       <c r="M184" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="N184" s="2" t="s">
         <v>12</v>
@@ -18369,15 +18599,69 @@
         <v>12</v>
       </c>
       <c r="Q184" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="186" spans="2:17" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="185" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A185">
+        <v>5</v>
+      </c>
+      <c r="B185" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C185" s="2">
+        <v>80</v>
+      </c>
+      <c r="D185" s="2">
+        <v>1</v>
+      </c>
+      <c r="E185" s="2">
+        <v>7000</v>
+      </c>
+      <c r="F185" s="2">
+        <v>14000</v>
+      </c>
+      <c r="G185" s="2">
+        <v>21000</v>
+      </c>
+      <c r="H185" s="2">
+        <v>28000</v>
+      </c>
+      <c r="I185" s="2">
+        <v>35000</v>
+      </c>
+      <c r="J185" s="1">
+        <v>35000</v>
+      </c>
+      <c r="K185" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L185" s="2"/>
+      <c r="M185" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N185" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="O185" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="P185" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q185" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="186" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A186">
+        <v>6</v>
+      </c>
       <c r="B186" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C186" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="D186" s="2">
         <v>1</v>
@@ -18400,12 +18684,10 @@
       <c r="J186" s="1">
         <v>35000</v>
       </c>
-      <c r="K186" s="1">
-        <v>10000</v>
-      </c>
-      <c r="L186" s="2">
-        <v>15000</v>
-      </c>
+      <c r="K186" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L186" s="2"/>
       <c r="M186" s="2" t="s">
         <v>11</v>
       </c>
@@ -18419,15 +18701,18 @@
         <v>12</v>
       </c>
       <c r="Q186" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="187" spans="2:17" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="187" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A187">
+        <v>7</v>
+      </c>
       <c r="B187" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C187" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="D187" s="2">
         <v>1</v>
@@ -18450,14 +18735,12 @@
       <c r="J187" s="1">
         <v>35000</v>
       </c>
-      <c r="K187" s="1">
-        <v>10000</v>
-      </c>
-      <c r="L187" s="2">
-        <v>15000</v>
-      </c>
+      <c r="K187" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L187" s="2"/>
       <c r="M187" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="N187" s="2" t="s">
         <v>12</v>
@@ -18469,15 +18752,18 @@
         <v>12</v>
       </c>
       <c r="Q187" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="188" spans="2:17" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="188" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A188">
+        <v>8</v>
+      </c>
       <c r="B188" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C188" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="D188" s="2">
         <v>1</v>
@@ -18501,7 +18787,7 @@
         <v>35000</v>
       </c>
       <c r="K188" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="L188" s="2"/>
       <c r="M188" s="2" t="s">
@@ -18517,15 +18803,18 @@
         <v>12</v>
       </c>
       <c r="Q188" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="189" spans="2:17" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="189" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A189">
+        <v>9</v>
+      </c>
       <c r="B189" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C189" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="D189" s="2">
         <v>1</v>
@@ -18549,7 +18838,7 @@
         <v>35000</v>
       </c>
       <c r="K189" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="L189" s="2"/>
       <c r="M189" s="2" t="s">
@@ -18565,15 +18854,18 @@
         <v>12</v>
       </c>
       <c r="Q189" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="190" spans="2:17" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="190" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A190">
+        <v>10</v>
+      </c>
       <c r="B190" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C190" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="D190" s="2">
         <v>1</v>
@@ -18597,7 +18889,7 @@
         <v>35000</v>
       </c>
       <c r="K190" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="L190" s="2"/>
       <c r="M190" s="2" t="s">
@@ -18613,15 +18905,18 @@
         <v>12</v>
       </c>
       <c r="Q190" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="191" spans="2:17" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="191" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A191">
+        <v>11</v>
+      </c>
       <c r="B191" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C191" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="D191" s="2">
         <v>1</v>
@@ -18645,7 +18940,7 @@
         <v>35000</v>
       </c>
       <c r="K191" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="L191" s="2"/>
       <c r="M191" s="2" t="s">
@@ -18661,15 +18956,18 @@
         <v>12</v>
       </c>
       <c r="Q191" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="192" spans="2:17" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="192" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A192">
+        <v>12</v>
+      </c>
       <c r="B192" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C192" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="D192" s="2">
         <v>1</v>
@@ -18693,7 +18991,7 @@
         <v>35000</v>
       </c>
       <c r="K192" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="L192" s="2"/>
       <c r="M192" s="2" t="s">
@@ -18709,15 +19007,18 @@
         <v>12</v>
       </c>
       <c r="Q192" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="193" spans="2:17" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="193" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A193">
+        <v>13</v>
+      </c>
       <c r="B193" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C193" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="D193" s="2">
         <v>1</v>
@@ -18741,7 +19042,7 @@
         <v>35000</v>
       </c>
       <c r="K193" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="L193" s="2"/>
       <c r="M193" s="2" t="s">
@@ -18757,15 +19058,18 @@
         <v>12</v>
       </c>
       <c r="Q193" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="194" spans="2:17" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="194" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A194">
+        <v>14</v>
+      </c>
       <c r="B194" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C194" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="D194" s="2">
         <v>1</v>
@@ -18789,7 +19093,7 @@
         <v>35000</v>
       </c>
       <c r="K194" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="L194" s="2"/>
       <c r="M194" s="2" t="s">
@@ -18805,15 +19109,18 @@
         <v>12</v>
       </c>
       <c r="Q194" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="195" spans="2:17" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="195" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A195">
+        <v>15</v>
+      </c>
       <c r="B195" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C195" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="D195" s="2">
         <v>1</v>
@@ -18837,7 +19144,7 @@
         <v>35000</v>
       </c>
       <c r="K195" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="L195" s="2"/>
       <c r="M195" s="2" t="s">
@@ -18853,15 +19160,18 @@
         <v>12</v>
       </c>
       <c r="Q195" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="196" spans="2:17" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="196" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A196">
+        <v>16</v>
+      </c>
       <c r="B196" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C196" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="D196" s="2">
         <v>1</v>
@@ -18885,7 +19195,7 @@
         <v>35000</v>
       </c>
       <c r="K196" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="L196" s="2"/>
       <c r="M196" s="2" t="s">
@@ -18901,143 +19211,199 @@
         <v>12</v>
       </c>
       <c r="Q196" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="197" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A197">
+        <v>17</v>
+      </c>
+      <c r="B197" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C197" s="2">
+        <v>80</v>
+      </c>
+      <c r="D197" s="2">
+        <v>1</v>
+      </c>
+      <c r="E197" s="2">
+        <v>7000</v>
+      </c>
+      <c r="F197" s="2">
+        <v>14000</v>
+      </c>
+      <c r="G197" s="2">
+        <v>21000</v>
+      </c>
+      <c r="H197" s="2">
+        <v>28000</v>
+      </c>
+      <c r="I197" s="2">
+        <v>35000</v>
+      </c>
+      <c r="J197" s="1">
+        <v>35000</v>
+      </c>
+      <c r="K197" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L197" s="2"/>
+      <c r="M197" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N197" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="O197" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="P197" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q197" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="198" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A198">
+        <v>18</v>
+      </c>
+      <c r="B198" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C198" s="2">
+        <v>80</v>
+      </c>
+      <c r="D198" s="2">
+        <v>1</v>
+      </c>
+      <c r="E198" s="2">
+        <v>7000</v>
+      </c>
+      <c r="F198" s="2">
+        <v>14000</v>
+      </c>
+      <c r="G198" s="2">
+        <v>21000</v>
+      </c>
+      <c r="H198" s="2">
+        <v>28000</v>
+      </c>
+      <c r="I198" s="2">
+        <v>35000</v>
+      </c>
+      <c r="J198" s="1">
+        <v>35000</v>
+      </c>
+      <c r="K198" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L198" s="2"/>
+      <c r="M198" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N198" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="O198" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="P198" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q198" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="199" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A199">
+        <v>19</v>
+      </c>
+      <c r="B199" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C199" s="2">
+        <v>80</v>
+      </c>
+      <c r="D199" s="2">
+        <v>1</v>
+      </c>
+      <c r="E199" s="2">
+        <v>7000</v>
+      </c>
+      <c r="F199" s="2">
+        <v>14000</v>
+      </c>
+      <c r="G199" s="2">
+        <v>21000</v>
+      </c>
+      <c r="H199" s="2">
+        <v>28000</v>
+      </c>
+      <c r="I199" s="2">
+        <v>35000</v>
+      </c>
+      <c r="J199" s="1">
+        <v>35000</v>
+      </c>
+      <c r="K199" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L199" s="2"/>
+      <c r="M199" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N199" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="O199" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="P199" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q199" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="200" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A200">
+        <v>20</v>
+      </c>
+      <c r="B200" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C200" s="2">
+        <v>80</v>
+      </c>
+      <c r="D200" s="2">
+        <v>1</v>
+      </c>
+      <c r="E200" s="2">
+        <v>7000</v>
+      </c>
+      <c r="F200" s="2">
+        <v>14000</v>
+      </c>
+      <c r="G200" s="2">
+        <v>21000</v>
+      </c>
+      <c r="H200" s="2">
+        <v>28000</v>
+      </c>
+      <c r="I200" s="2">
+        <v>35000</v>
+      </c>
+      <c r="J200" s="1">
+        <v>35000</v>
+      </c>
+      <c r="K200" s="1" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="198" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B198" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C198" s="2">
-        <v>150</v>
-      </c>
-      <c r="D198" s="2">
-        <v>1</v>
-      </c>
-      <c r="E198" s="2">
-        <v>7000</v>
-      </c>
-      <c r="F198" s="2">
-        <v>14000</v>
-      </c>
-      <c r="G198" s="2">
-        <v>21000</v>
-      </c>
-      <c r="H198" s="2">
-        <v>28000</v>
-      </c>
-      <c r="I198" s="2">
-        <v>35000</v>
-      </c>
-      <c r="J198" s="1">
-        <v>35000</v>
-      </c>
-      <c r="K198" s="1">
-        <v>10000</v>
-      </c>
-      <c r="L198" s="2">
-        <v>15000</v>
-      </c>
-      <c r="M198" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="N198" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="O198" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="P198" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q198" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="199" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B199" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C199" s="2">
-        <v>150</v>
-      </c>
-      <c r="D199" s="2">
-        <v>1</v>
-      </c>
-      <c r="E199" s="2">
-        <v>7000</v>
-      </c>
-      <c r="F199" s="2">
-        <v>14000</v>
-      </c>
-      <c r="G199" s="2">
-        <v>21000</v>
-      </c>
-      <c r="H199" s="2">
-        <v>28000</v>
-      </c>
-      <c r="I199" s="2">
-        <v>35000</v>
-      </c>
-      <c r="J199" s="1">
-        <v>35000</v>
-      </c>
-      <c r="K199" s="1">
-        <v>10000</v>
-      </c>
-      <c r="L199" s="2">
-        <v>15000</v>
-      </c>
-      <c r="M199" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="N199" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="O199" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="P199" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q199" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="200" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B200" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C200" s="2">
-        <v>150</v>
-      </c>
-      <c r="D200" s="2">
-        <v>1</v>
-      </c>
-      <c r="E200" s="2">
-        <v>7000</v>
-      </c>
-      <c r="F200" s="2">
-        <v>14000</v>
-      </c>
-      <c r="G200" s="2">
-        <v>21000</v>
-      </c>
-      <c r="H200" s="2">
-        <v>28000</v>
-      </c>
-      <c r="I200" s="2">
-        <v>35000</v>
-      </c>
-      <c r="J200" s="1">
-        <v>35000</v>
-      </c>
-      <c r="K200" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="L200" s="2"/>
       <c r="M200" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="N200" s="2" t="s">
         <v>12</v>
@@ -19049,63 +19415,18 @@
         <v>12</v>
       </c>
       <c r="Q200" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="201" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B201" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C201" s="2">
-        <v>150</v>
-      </c>
-      <c r="D201" s="2">
-        <v>1</v>
-      </c>
-      <c r="E201" s="2">
-        <v>7000</v>
-      </c>
-      <c r="F201" s="2">
-        <v>14000</v>
-      </c>
-      <c r="G201" s="2">
-        <v>21000</v>
-      </c>
-      <c r="H201" s="2">
-        <v>28000</v>
-      </c>
-      <c r="I201" s="2">
-        <v>35000</v>
-      </c>
-      <c r="J201" s="1">
-        <v>35000</v>
-      </c>
-      <c r="K201" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="L201" s="2"/>
-      <c r="M201" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="N201" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="O201" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="P201" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q201" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="202" spans="2:17" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="202" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A202">
+        <v>1</v>
+      </c>
       <c r="B202" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C202" s="2">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="D202" s="2">
         <v>1</v>
@@ -19128,10 +19449,12 @@
       <c r="J202" s="1">
         <v>35000</v>
       </c>
-      <c r="K202" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="L202" s="2"/>
+      <c r="K202" s="1">
+        <v>10000</v>
+      </c>
+      <c r="L202" s="2">
+        <v>15000</v>
+      </c>
       <c r="M202" s="2" t="s">
         <v>11</v>
       </c>
@@ -19145,15 +19468,18 @@
         <v>12</v>
       </c>
       <c r="Q202" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="203" spans="2:17" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="203" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A203">
+        <v>2</v>
+      </c>
       <c r="B203" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C203" s="2">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="D203" s="2">
         <v>1</v>
@@ -19176,12 +19502,14 @@
       <c r="J203" s="1">
         <v>35000</v>
       </c>
-      <c r="K203" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L203" s="2"/>
+      <c r="K203" s="1">
+        <v>10000</v>
+      </c>
+      <c r="L203" s="2">
+        <v>15000</v>
+      </c>
       <c r="M203" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="N203" s="2" t="s">
         <v>12</v>
@@ -19193,15 +19521,18 @@
         <v>12</v>
       </c>
       <c r="Q203" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="204" spans="2:17" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="204" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A204">
+        <v>3</v>
+      </c>
       <c r="B204" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C204" s="2">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="D204" s="2">
         <v>1</v>
@@ -19225,11 +19556,11 @@
         <v>35000</v>
       </c>
       <c r="K204" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="L204" s="2"/>
       <c r="M204" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="N204" s="2" t="s">
         <v>12</v>
@@ -19241,15 +19572,18 @@
         <v>12</v>
       </c>
       <c r="Q204" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="205" spans="2:17" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="205" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A205">
+        <v>4</v>
+      </c>
       <c r="B205" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C205" s="2">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="D205" s="2">
         <v>1</v>
@@ -19273,11 +19607,11 @@
         <v>35000</v>
       </c>
       <c r="K205" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="L205" s="2"/>
       <c r="M205" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="N205" s="2" t="s">
         <v>12</v>
@@ -19289,15 +19623,18 @@
         <v>12</v>
       </c>
       <c r="Q205" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="206" spans="2:17" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="206" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A206">
+        <v>5</v>
+      </c>
       <c r="B206" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C206" s="2">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="D206" s="2">
         <v>1</v>
@@ -19321,11 +19658,11 @@
         <v>35000</v>
       </c>
       <c r="K206" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="L206" s="2"/>
       <c r="M206" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="N206" s="2" t="s">
         <v>12</v>
@@ -19337,15 +19674,18 @@
         <v>12</v>
       </c>
       <c r="Q206" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="207" spans="2:17" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="207" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A207">
+        <v>6</v>
+      </c>
       <c r="B207" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C207" s="2">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="D207" s="2">
         <v>1</v>
@@ -19369,11 +19709,11 @@
         <v>35000</v>
       </c>
       <c r="K207" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="L207" s="2"/>
       <c r="M207" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="N207" s="2" t="s">
         <v>12</v>
@@ -19385,15 +19725,18 @@
         <v>12</v>
       </c>
       <c r="Q207" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="208" spans="2:17" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="208" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A208">
+        <v>7</v>
+      </c>
       <c r="B208" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C208" s="2">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="D208" s="2">
         <v>1</v>
@@ -19417,11 +19760,11 @@
         <v>35000</v>
       </c>
       <c r="K208" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="L208" s="2"/>
       <c r="M208" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="N208" s="2" t="s">
         <v>12</v>
@@ -19433,6 +19776,1693 @@
         <v>12</v>
       </c>
       <c r="Q208" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="209" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A209">
+        <v>8</v>
+      </c>
+      <c r="B209" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C209" s="2">
+        <v>100</v>
+      </c>
+      <c r="D209" s="2">
+        <v>1</v>
+      </c>
+      <c r="E209" s="2">
+        <v>7000</v>
+      </c>
+      <c r="F209" s="2">
+        <v>14000</v>
+      </c>
+      <c r="G209" s="2">
+        <v>21000</v>
+      </c>
+      <c r="H209" s="2">
+        <v>28000</v>
+      </c>
+      <c r="I209" s="2">
+        <v>35000</v>
+      </c>
+      <c r="J209" s="1">
+        <v>35000</v>
+      </c>
+      <c r="K209" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L209" s="2"/>
+      <c r="M209" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N209" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="O209" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="P209" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q209" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="210" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A210">
+        <v>9</v>
+      </c>
+      <c r="B210" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C210" s="2">
+        <v>100</v>
+      </c>
+      <c r="D210" s="2">
+        <v>1</v>
+      </c>
+      <c r="E210" s="2">
+        <v>7000</v>
+      </c>
+      <c r="F210" s="2">
+        <v>14000</v>
+      </c>
+      <c r="G210" s="2">
+        <v>21000</v>
+      </c>
+      <c r="H210" s="2">
+        <v>28000</v>
+      </c>
+      <c r="I210" s="2">
+        <v>35000</v>
+      </c>
+      <c r="J210" s="1">
+        <v>35000</v>
+      </c>
+      <c r="K210" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L210" s="2"/>
+      <c r="M210" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N210" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="O210" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="P210" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q210" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="211" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A211">
+        <v>10</v>
+      </c>
+      <c r="B211" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C211" s="2">
+        <v>100</v>
+      </c>
+      <c r="D211" s="2">
+        <v>1</v>
+      </c>
+      <c r="E211" s="2">
+        <v>7000</v>
+      </c>
+      <c r="F211" s="2">
+        <v>14000</v>
+      </c>
+      <c r="G211" s="2">
+        <v>21000</v>
+      </c>
+      <c r="H211" s="2">
+        <v>28000</v>
+      </c>
+      <c r="I211" s="2">
+        <v>35000</v>
+      </c>
+      <c r="J211" s="1">
+        <v>35000</v>
+      </c>
+      <c r="K211" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L211" s="2"/>
+      <c r="M211" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N211" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="O211" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="P211" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q211" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="212" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A212">
+        <v>11</v>
+      </c>
+      <c r="B212" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C212" s="2">
+        <v>100</v>
+      </c>
+      <c r="D212" s="2">
+        <v>1</v>
+      </c>
+      <c r="E212" s="2">
+        <v>7000</v>
+      </c>
+      <c r="F212" s="2">
+        <v>14000</v>
+      </c>
+      <c r="G212" s="2">
+        <v>21000</v>
+      </c>
+      <c r="H212" s="2">
+        <v>28000</v>
+      </c>
+      <c r="I212" s="2">
+        <v>35000</v>
+      </c>
+      <c r="J212" s="1">
+        <v>35000</v>
+      </c>
+      <c r="K212" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L212" s="2"/>
+      <c r="M212" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N212" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="O212" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="P212" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q212" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="213" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A213">
+        <v>12</v>
+      </c>
+      <c r="B213" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C213" s="2">
+        <v>100</v>
+      </c>
+      <c r="D213" s="2">
+        <v>1</v>
+      </c>
+      <c r="E213" s="2">
+        <v>7000</v>
+      </c>
+      <c r="F213" s="2">
+        <v>14000</v>
+      </c>
+      <c r="G213" s="2">
+        <v>21000</v>
+      </c>
+      <c r="H213" s="2">
+        <v>28000</v>
+      </c>
+      <c r="I213" s="2">
+        <v>35000</v>
+      </c>
+      <c r="J213" s="1">
+        <v>35000</v>
+      </c>
+      <c r="K213" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L213" s="2"/>
+      <c r="M213" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N213" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="O213" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="P213" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q213" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="214" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A214">
+        <v>13</v>
+      </c>
+      <c r="B214" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C214" s="2">
+        <v>100</v>
+      </c>
+      <c r="D214" s="2">
+        <v>1</v>
+      </c>
+      <c r="E214" s="2">
+        <v>7000</v>
+      </c>
+      <c r="F214" s="2">
+        <v>14000</v>
+      </c>
+      <c r="G214" s="2">
+        <v>21000</v>
+      </c>
+      <c r="H214" s="2">
+        <v>28000</v>
+      </c>
+      <c r="I214" s="2">
+        <v>35000</v>
+      </c>
+      <c r="J214" s="1">
+        <v>35000</v>
+      </c>
+      <c r="K214" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L214" s="2"/>
+      <c r="M214" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N214" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="O214" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="P214" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q214" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="215" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A215">
+        <v>14</v>
+      </c>
+      <c r="B215" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C215" s="2">
+        <v>100</v>
+      </c>
+      <c r="D215" s="2">
+        <v>1</v>
+      </c>
+      <c r="E215" s="2">
+        <v>7000</v>
+      </c>
+      <c r="F215" s="2">
+        <v>14000</v>
+      </c>
+      <c r="G215" s="2">
+        <v>21000</v>
+      </c>
+      <c r="H215" s="2">
+        <v>28000</v>
+      </c>
+      <c r="I215" s="2">
+        <v>35000</v>
+      </c>
+      <c r="J215" s="1">
+        <v>35000</v>
+      </c>
+      <c r="K215" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L215" s="2"/>
+      <c r="M215" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N215" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="O215" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="P215" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q215" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="216" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A216">
+        <v>15</v>
+      </c>
+      <c r="B216" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C216" s="2">
+        <v>100</v>
+      </c>
+      <c r="D216" s="2">
+        <v>1</v>
+      </c>
+      <c r="E216" s="2">
+        <v>7000</v>
+      </c>
+      <c r="F216" s="2">
+        <v>14000</v>
+      </c>
+      <c r="G216" s="2">
+        <v>21000</v>
+      </c>
+      <c r="H216" s="2">
+        <v>28000</v>
+      </c>
+      <c r="I216" s="2">
+        <v>35000</v>
+      </c>
+      <c r="J216" s="1">
+        <v>35000</v>
+      </c>
+      <c r="K216" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L216" s="2"/>
+      <c r="M216" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N216" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="O216" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="P216" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q216" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="217" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A217">
+        <v>16</v>
+      </c>
+      <c r="B217" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C217" s="2">
+        <v>100</v>
+      </c>
+      <c r="D217" s="2">
+        <v>1</v>
+      </c>
+      <c r="E217" s="2">
+        <v>7000</v>
+      </c>
+      <c r="F217" s="2">
+        <v>14000</v>
+      </c>
+      <c r="G217" s="2">
+        <v>21000</v>
+      </c>
+      <c r="H217" s="2">
+        <v>28000</v>
+      </c>
+      <c r="I217" s="2">
+        <v>35000</v>
+      </c>
+      <c r="J217" s="1">
+        <v>35000</v>
+      </c>
+      <c r="K217" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L217" s="2"/>
+      <c r="M217" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N217" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="O217" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="P217" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q217" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="218" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A218">
+        <v>17</v>
+      </c>
+      <c r="B218" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C218" s="2">
+        <v>100</v>
+      </c>
+      <c r="D218" s="2">
+        <v>1</v>
+      </c>
+      <c r="E218" s="2">
+        <v>7000</v>
+      </c>
+      <c r="F218" s="2">
+        <v>14000</v>
+      </c>
+      <c r="G218" s="2">
+        <v>21000</v>
+      </c>
+      <c r="H218" s="2">
+        <v>28000</v>
+      </c>
+      <c r="I218" s="2">
+        <v>35000</v>
+      </c>
+      <c r="J218" s="1">
+        <v>35000</v>
+      </c>
+      <c r="K218" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L218" s="2"/>
+      <c r="M218" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N218" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="O218" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="P218" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q218" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="219" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A219">
+        <v>18</v>
+      </c>
+      <c r="B219" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C219" s="2">
+        <v>100</v>
+      </c>
+      <c r="D219" s="2">
+        <v>1</v>
+      </c>
+      <c r="E219" s="2">
+        <v>7000</v>
+      </c>
+      <c r="F219" s="2">
+        <v>14000</v>
+      </c>
+      <c r="G219" s="2">
+        <v>21000</v>
+      </c>
+      <c r="H219" s="2">
+        <v>28000</v>
+      </c>
+      <c r="I219" s="2">
+        <v>35000</v>
+      </c>
+      <c r="J219" s="1">
+        <v>35000</v>
+      </c>
+      <c r="K219" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L219" s="2"/>
+      <c r="M219" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N219" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="O219" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="P219" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q219" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="220" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A220">
+        <v>19</v>
+      </c>
+      <c r="B220" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C220" s="2">
+        <v>100</v>
+      </c>
+      <c r="D220" s="2">
+        <v>1</v>
+      </c>
+      <c r="E220" s="2">
+        <v>7000</v>
+      </c>
+      <c r="F220" s="2">
+        <v>14000</v>
+      </c>
+      <c r="G220" s="2">
+        <v>21000</v>
+      </c>
+      <c r="H220" s="2">
+        <v>28000</v>
+      </c>
+      <c r="I220" s="2">
+        <v>35000</v>
+      </c>
+      <c r="J220" s="1">
+        <v>35000</v>
+      </c>
+      <c r="K220" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L220" s="2"/>
+      <c r="M220" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N220" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="O220" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="P220" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q220" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="221" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A221">
+        <v>20</v>
+      </c>
+      <c r="B221" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C221" s="2">
+        <v>100</v>
+      </c>
+      <c r="D221" s="2">
+        <v>1</v>
+      </c>
+      <c r="E221" s="2">
+        <v>7000</v>
+      </c>
+      <c r="F221" s="2">
+        <v>14000</v>
+      </c>
+      <c r="G221" s="2">
+        <v>21000</v>
+      </c>
+      <c r="H221" s="2">
+        <v>28000</v>
+      </c>
+      <c r="I221" s="2">
+        <v>35000</v>
+      </c>
+      <c r="J221" s="1">
+        <v>35000</v>
+      </c>
+      <c r="K221" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L221" s="2"/>
+      <c r="M221" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N221" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="O221" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="P221" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q221" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="223" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A223">
+        <v>1</v>
+      </c>
+      <c r="B223" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C223" s="2">
+        <v>150</v>
+      </c>
+      <c r="D223" s="2">
+        <v>1</v>
+      </c>
+      <c r="E223" s="2">
+        <v>7000</v>
+      </c>
+      <c r="F223" s="2">
+        <v>14000</v>
+      </c>
+      <c r="G223" s="2">
+        <v>21000</v>
+      </c>
+      <c r="H223" s="2">
+        <v>28000</v>
+      </c>
+      <c r="I223" s="2">
+        <v>35000</v>
+      </c>
+      <c r="J223" s="1">
+        <v>35000</v>
+      </c>
+      <c r="K223" s="1">
+        <v>10000</v>
+      </c>
+      <c r="L223" s="2">
+        <v>15000</v>
+      </c>
+      <c r="M223" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N223" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="O223" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="P223" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q223" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="224" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A224">
+        <v>2</v>
+      </c>
+      <c r="B224" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C224" s="2">
+        <v>150</v>
+      </c>
+      <c r="D224" s="2">
+        <v>1</v>
+      </c>
+      <c r="E224" s="2">
+        <v>7000</v>
+      </c>
+      <c r="F224" s="2">
+        <v>14000</v>
+      </c>
+      <c r="G224" s="2">
+        <v>21000</v>
+      </c>
+      <c r="H224" s="2">
+        <v>28000</v>
+      </c>
+      <c r="I224" s="2">
+        <v>35000</v>
+      </c>
+      <c r="J224" s="1">
+        <v>35000</v>
+      </c>
+      <c r="K224" s="1">
+        <v>10000</v>
+      </c>
+      <c r="L224" s="2">
+        <v>15000</v>
+      </c>
+      <c r="M224" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N224" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="O224" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="P224" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q224" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="225" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A225">
+        <v>3</v>
+      </c>
+      <c r="B225" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C225" s="2">
+        <v>150</v>
+      </c>
+      <c r="D225" s="2">
+        <v>1</v>
+      </c>
+      <c r="E225" s="2">
+        <v>7000</v>
+      </c>
+      <c r="F225" s="2">
+        <v>14000</v>
+      </c>
+      <c r="G225" s="2">
+        <v>21000</v>
+      </c>
+      <c r="H225" s="2">
+        <v>28000</v>
+      </c>
+      <c r="I225" s="2">
+        <v>35000</v>
+      </c>
+      <c r="J225" s="1">
+        <v>35000</v>
+      </c>
+      <c r="K225" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L225" s="2"/>
+      <c r="M225" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N225" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="O225" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="P225" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q225" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="226" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A226">
+        <v>4</v>
+      </c>
+      <c r="B226" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C226" s="2">
+        <v>150</v>
+      </c>
+      <c r="D226" s="2">
+        <v>1</v>
+      </c>
+      <c r="E226" s="2">
+        <v>7000</v>
+      </c>
+      <c r="F226" s="2">
+        <v>14000</v>
+      </c>
+      <c r="G226" s="2">
+        <v>21000</v>
+      </c>
+      <c r="H226" s="2">
+        <v>28000</v>
+      </c>
+      <c r="I226" s="2">
+        <v>35000</v>
+      </c>
+      <c r="J226" s="1">
+        <v>35000</v>
+      </c>
+      <c r="K226" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L226" s="2"/>
+      <c r="M226" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N226" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="O226" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="P226" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q226" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="227" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A227">
+        <v>5</v>
+      </c>
+      <c r="B227" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C227" s="2">
+        <v>150</v>
+      </c>
+      <c r="D227" s="2">
+        <v>1</v>
+      </c>
+      <c r="E227" s="2">
+        <v>7000</v>
+      </c>
+      <c r="F227" s="2">
+        <v>14000</v>
+      </c>
+      <c r="G227" s="2">
+        <v>21000</v>
+      </c>
+      <c r="H227" s="2">
+        <v>28000</v>
+      </c>
+      <c r="I227" s="2">
+        <v>35000</v>
+      </c>
+      <c r="J227" s="1">
+        <v>35000</v>
+      </c>
+      <c r="K227" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L227" s="2"/>
+      <c r="M227" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N227" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="O227" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="P227" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q227" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="228" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A228">
+        <v>6</v>
+      </c>
+      <c r="B228" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C228" s="2">
+        <v>150</v>
+      </c>
+      <c r="D228" s="2">
+        <v>1</v>
+      </c>
+      <c r="E228" s="2">
+        <v>7000</v>
+      </c>
+      <c r="F228" s="2">
+        <v>14000</v>
+      </c>
+      <c r="G228" s="2">
+        <v>21000</v>
+      </c>
+      <c r="H228" s="2">
+        <v>28000</v>
+      </c>
+      <c r="I228" s="2">
+        <v>35000</v>
+      </c>
+      <c r="J228" s="1">
+        <v>35000</v>
+      </c>
+      <c r="K228" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L228" s="2"/>
+      <c r="M228" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N228" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="O228" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="P228" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q228" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="229" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A229">
+        <v>7</v>
+      </c>
+      <c r="B229" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C229" s="2">
+        <v>150</v>
+      </c>
+      <c r="D229" s="2">
+        <v>1</v>
+      </c>
+      <c r="E229" s="2">
+        <v>7000</v>
+      </c>
+      <c r="F229" s="2">
+        <v>14000</v>
+      </c>
+      <c r="G229" s="2">
+        <v>21000</v>
+      </c>
+      <c r="H229" s="2">
+        <v>28000</v>
+      </c>
+      <c r="I229" s="2">
+        <v>35000</v>
+      </c>
+      <c r="J229" s="1">
+        <v>35000</v>
+      </c>
+      <c r="K229" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L229" s="2"/>
+      <c r="M229" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N229" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="O229" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="P229" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q229" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="230" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A230">
+        <v>8</v>
+      </c>
+      <c r="B230" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C230" s="2">
+        <v>150</v>
+      </c>
+      <c r="D230" s="2">
+        <v>1</v>
+      </c>
+      <c r="E230" s="2">
+        <v>7000</v>
+      </c>
+      <c r="F230" s="2">
+        <v>14000</v>
+      </c>
+      <c r="G230" s="2">
+        <v>21000</v>
+      </c>
+      <c r="H230" s="2">
+        <v>28000</v>
+      </c>
+      <c r="I230" s="2">
+        <v>35000</v>
+      </c>
+      <c r="J230" s="1">
+        <v>35000</v>
+      </c>
+      <c r="K230" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L230" s="2"/>
+      <c r="M230" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N230" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="O230" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="P230" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q230" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="231" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A231">
+        <v>9</v>
+      </c>
+      <c r="B231" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C231" s="2">
+        <v>150</v>
+      </c>
+      <c r="D231" s="2">
+        <v>1</v>
+      </c>
+      <c r="E231" s="2">
+        <v>7000</v>
+      </c>
+      <c r="F231" s="2">
+        <v>14000</v>
+      </c>
+      <c r="G231" s="2">
+        <v>21000</v>
+      </c>
+      <c r="H231" s="2">
+        <v>28000</v>
+      </c>
+      <c r="I231" s="2">
+        <v>35000</v>
+      </c>
+      <c r="J231" s="1">
+        <v>35000</v>
+      </c>
+      <c r="K231" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L231" s="2"/>
+      <c r="M231" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N231" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="O231" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="P231" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q231" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="232" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A232">
+        <v>10</v>
+      </c>
+      <c r="B232" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C232" s="2">
+        <v>150</v>
+      </c>
+      <c r="D232" s="2">
+        <v>1</v>
+      </c>
+      <c r="E232" s="2">
+        <v>7000</v>
+      </c>
+      <c r="F232" s="2">
+        <v>14000</v>
+      </c>
+      <c r="G232" s="2">
+        <v>21000</v>
+      </c>
+      <c r="H232" s="2">
+        <v>28000</v>
+      </c>
+      <c r="I232" s="2">
+        <v>35000</v>
+      </c>
+      <c r="J232" s="1">
+        <v>35000</v>
+      </c>
+      <c r="K232" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L232" s="2"/>
+      <c r="M232" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N232" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="O232" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="P232" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q232" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="233" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A233">
+        <v>11</v>
+      </c>
+      <c r="B233" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C233" s="2">
+        <v>150</v>
+      </c>
+      <c r="D233" s="2">
+        <v>1</v>
+      </c>
+      <c r="E233" s="2">
+        <v>7000</v>
+      </c>
+      <c r="F233" s="2">
+        <v>14000</v>
+      </c>
+      <c r="G233" s="2">
+        <v>21000</v>
+      </c>
+      <c r="H233" s="2">
+        <v>28000</v>
+      </c>
+      <c r="I233" s="2">
+        <v>35000</v>
+      </c>
+      <c r="J233" s="1">
+        <v>35000</v>
+      </c>
+      <c r="K233" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L233" s="2"/>
+      <c r="M233" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N233" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="O233" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="P233" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q233" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="234" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A234">
+        <v>12</v>
+      </c>
+      <c r="B234" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C234" s="2">
+        <v>150</v>
+      </c>
+      <c r="D234" s="2">
+        <v>1</v>
+      </c>
+      <c r="E234" s="2">
+        <v>7000</v>
+      </c>
+      <c r="F234" s="2">
+        <v>14000</v>
+      </c>
+      <c r="G234" s="2">
+        <v>21000</v>
+      </c>
+      <c r="H234" s="2">
+        <v>28000</v>
+      </c>
+      <c r="I234" s="2">
+        <v>35000</v>
+      </c>
+      <c r="J234" s="1">
+        <v>35000</v>
+      </c>
+      <c r="K234" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L234" s="2"/>
+      <c r="M234" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N234" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="O234" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="P234" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q234" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="235" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A235">
+        <v>13</v>
+      </c>
+      <c r="B235" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C235" s="2">
+        <v>150</v>
+      </c>
+      <c r="D235" s="2">
+        <v>1</v>
+      </c>
+      <c r="E235" s="2">
+        <v>7000</v>
+      </c>
+      <c r="F235" s="2">
+        <v>14000</v>
+      </c>
+      <c r="G235" s="2">
+        <v>21000</v>
+      </c>
+      <c r="H235" s="2">
+        <v>28000</v>
+      </c>
+      <c r="I235" s="2">
+        <v>35000</v>
+      </c>
+      <c r="J235" s="1">
+        <v>35000</v>
+      </c>
+      <c r="K235" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L235" s="2"/>
+      <c r="M235" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N235" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="O235" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="P235" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q235" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="236" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A236">
+        <v>14</v>
+      </c>
+      <c r="B236" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C236" s="2">
+        <v>150</v>
+      </c>
+      <c r="D236" s="2">
+        <v>1</v>
+      </c>
+      <c r="E236" s="2">
+        <v>7000</v>
+      </c>
+      <c r="F236" s="2">
+        <v>14000</v>
+      </c>
+      <c r="G236" s="2">
+        <v>21000</v>
+      </c>
+      <c r="H236" s="2">
+        <v>28000</v>
+      </c>
+      <c r="I236" s="2">
+        <v>35000</v>
+      </c>
+      <c r="J236" s="1">
+        <v>35000</v>
+      </c>
+      <c r="K236" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L236" s="2"/>
+      <c r="M236" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N236" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="O236" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="P236" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q236" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="237" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A237">
+        <v>15</v>
+      </c>
+      <c r="B237" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C237" s="2">
+        <v>150</v>
+      </c>
+      <c r="D237" s="2">
+        <v>1</v>
+      </c>
+      <c r="E237" s="2">
+        <v>7000</v>
+      </c>
+      <c r="F237" s="2">
+        <v>14000</v>
+      </c>
+      <c r="G237" s="2">
+        <v>21000</v>
+      </c>
+      <c r="H237" s="2">
+        <v>28000</v>
+      </c>
+      <c r="I237" s="2">
+        <v>35000</v>
+      </c>
+      <c r="J237" s="1">
+        <v>35000</v>
+      </c>
+      <c r="K237" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L237" s="2"/>
+      <c r="M237" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N237" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="O237" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="P237" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q237" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="238" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A238">
+        <v>16</v>
+      </c>
+      <c r="B238" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C238" s="2">
+        <v>150</v>
+      </c>
+      <c r="D238" s="2">
+        <v>1</v>
+      </c>
+      <c r="E238" s="2">
+        <v>7000</v>
+      </c>
+      <c r="F238" s="2">
+        <v>14000</v>
+      </c>
+      <c r="G238" s="2">
+        <v>21000</v>
+      </c>
+      <c r="H238" s="2">
+        <v>28000</v>
+      </c>
+      <c r="I238" s="2">
+        <v>35000</v>
+      </c>
+      <c r="J238" s="1">
+        <v>35000</v>
+      </c>
+      <c r="K238" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L238" s="2"/>
+      <c r="M238" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N238" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="O238" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="P238" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q238" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="239" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A239">
+        <v>17</v>
+      </c>
+      <c r="B239" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C239" s="2">
+        <v>150</v>
+      </c>
+      <c r="D239" s="2">
+        <v>1</v>
+      </c>
+      <c r="E239" s="2">
+        <v>7000</v>
+      </c>
+      <c r="F239" s="2">
+        <v>14000</v>
+      </c>
+      <c r="G239" s="2">
+        <v>21000</v>
+      </c>
+      <c r="H239" s="2">
+        <v>28000</v>
+      </c>
+      <c r="I239" s="2">
+        <v>35000</v>
+      </c>
+      <c r="J239" s="1">
+        <v>35000</v>
+      </c>
+      <c r="K239" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L239" s="2"/>
+      <c r="M239" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N239" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="O239" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="P239" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q239" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="240" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A240">
+        <v>18</v>
+      </c>
+      <c r="B240" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C240" s="2">
+        <v>150</v>
+      </c>
+      <c r="D240" s="2">
+        <v>1</v>
+      </c>
+      <c r="E240" s="2">
+        <v>7000</v>
+      </c>
+      <c r="F240" s="2">
+        <v>14000</v>
+      </c>
+      <c r="G240" s="2">
+        <v>21000</v>
+      </c>
+      <c r="H240" s="2">
+        <v>28000</v>
+      </c>
+      <c r="I240" s="2">
+        <v>35000</v>
+      </c>
+      <c r="J240" s="1">
+        <v>35000</v>
+      </c>
+      <c r="K240" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L240" s="2"/>
+      <c r="M240" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N240" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="O240" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="P240" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q240" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="241" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A241">
+        <v>19</v>
+      </c>
+      <c r="B241" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C241" s="2">
+        <v>150</v>
+      </c>
+      <c r="D241" s="2">
+        <v>1</v>
+      </c>
+      <c r="E241" s="2">
+        <v>7000</v>
+      </c>
+      <c r="F241" s="2">
+        <v>14000</v>
+      </c>
+      <c r="G241" s="2">
+        <v>21000</v>
+      </c>
+      <c r="H241" s="2">
+        <v>28000</v>
+      </c>
+      <c r="I241" s="2">
+        <v>35000</v>
+      </c>
+      <c r="J241" s="1">
+        <v>35000</v>
+      </c>
+      <c r="K241" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L241" s="2"/>
+      <c r="M241" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N241" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="O241" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="P241" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q241" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="242" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A242">
+        <v>20</v>
+      </c>
+      <c r="B242" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C242" s="2">
+        <v>150</v>
+      </c>
+      <c r="D242" s="2">
+        <v>1</v>
+      </c>
+      <c r="E242" s="2">
+        <v>7000</v>
+      </c>
+      <c r="F242" s="2">
+        <v>14000</v>
+      </c>
+      <c r="G242" s="2">
+        <v>21000</v>
+      </c>
+      <c r="H242" s="2">
+        <v>28000</v>
+      </c>
+      <c r="I242" s="2">
+        <v>35000</v>
+      </c>
+      <c r="J242" s="1">
+        <v>35000</v>
+      </c>
+      <c r="K242" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L242" s="2"/>
+      <c r="M242" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N242" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="O242" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="P242" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q242" s="1" t="s">
         <v>26</v>
       </c>
     </row>
